--- a/resultados_segmentos.xlsx
+++ b/resultados_segmentos.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Relación Área</t>
+          <t>Relación entre Contornos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Razones de Área</t>
+          <t>Relación del Segmento</t>
         </is>
       </c>
     </row>
